--- a/web/images/t4.xlsx
+++ b/web/images/t4.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="data-clustering (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -560,7 +560,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="10" xfId="34" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,6 +569,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="12" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="34" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,6 +630,1159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Survival Graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'data-clustering (1)'!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'data-clustering (1)'!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1875387968"/>
+        <c:axId val="1875386336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1875387968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875386336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1875386336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875387968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170391</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73148</cdr:x>
+      <cdr:y>0.2273</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86574</cdr:x>
+      <cdr:y>0.31199</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3344333" y="710142"/>
+          <a:ext cx="613834" cy="264584"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CASE B</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51111</cdr:x>
+      <cdr:y>0.3042</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65741</cdr:x>
+      <cdr:y>0.37636</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2336799" y="950384"/>
+          <a:ext cx="668867" cy="225425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CASE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> A</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,63 +2080,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <f>(5/6)</f>
-        <v>0.83333333333333337</v>
-      </c>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <f>(4/6)</f>
-        <v>0.66666666666666663</v>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <f>(3/6)</f>
-        <v>0.5</v>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -989,16 +2120,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <f>(2/6)</f>
-        <v>0.33333333333333331</v>
+        <f>(5/6)*100</f>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1007,16 +2138,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <f>(1/6)</f>
-        <v>0.16666666666666666</v>
+        <f>(4/6)*100</f>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1025,36 +2156,55 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f>(3/6)*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <f>(2/6)*100</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <f>(7/8)</f>
-        <v>0.875</v>
+        <f>(1/6)*100</f>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1063,67 +2213,28 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <f>(6/8)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <f>(5/8)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
       <c r="D12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <f>(4/8)</f>
-        <v>0.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
       <c r="D13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <f>(3/8)</f>
-        <v>0.375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1132,16 +2243,16 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <f>(2/8)</f>
-        <v>0.25</v>
+        <f>(7/8)*100</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1150,16 +2261,16 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <f>(1/8)</f>
-        <v>0.125</v>
+        <f>(6/8)*100</f>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1168,14 +2279,105 @@
         <v>2</v>
       </c>
       <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f>(5/8)*100</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <f>(4/8)*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <f>(3/8)*100</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <f>(2/8)*100</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <f>(1/8)*100</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>15</v>
       </c>
-      <c r="E16">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>